--- a/PublicationList_vCSV.xlsx
+++ b/PublicationList_vCSV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ea19833_bristol_ac_uk/Documents/Documents/Website/biogeochem/bristolbiogeochem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{041B0603-2F5C-4AF0-97FB-421E0494523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43186C31-DBB8-4288-BD55-870C206E7CAB}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{041B0603-2F5C-4AF0-97FB-421E0494523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6B6E261-1E99-40F5-B558-D6D5859FB4C1}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49B9DFBD-B444-423A-85EA-2ABDABAE12CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49B9DFBD-B444-423A-85EA-2ABDABAE12CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Published_full" sheetId="5" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Bio-Imaging with the Helium-Ion Microscope: A Review</t>
   </si>
   <si>
-    <t>Agnes Kontny, Magnus Schneider, Elisabeth Eiche, Emiliano Stopelli, Martyna Glodowska, Bhasker Rathi, Jörg Göttlicher, James M. Byrne, Andreas Kappler, Michael Berg, Duyen Vu Thi, Pham T.K. Trang, Pham H. Viet, Thomas Neumann</t>
-  </si>
-  <si>
     <t>DOI</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.gca.2020.12.029</t>
-  </si>
-  <si>
-    <t>H.Y. Wang, J. Göttlicher, J.M. Byrne, H.M Guo, L. G. Benning, S. Norra</t>
   </si>
   <si>
     <t>Vertical Redox Zones of Fe-S-As Coupled Mineralogy in the Sediments of Hetao Basin – Constraints for Groundwater As Contamination</t>
@@ -375,9 +369,6 @@
     <t>Byrne J. M. Kappler A.</t>
   </si>
   <si>
-    <t>Mössbauer spectroscopy, in Analytical Geomicrobiology: A Handbook of Instrumental Techniques</t>
-  </si>
-  <si>
     <t>Redox cycling of Fe(II) and Fe(III) in magnetite accelerates aceticlastic methanogenesis by Methanosarcina mazei</t>
   </si>
   <si>
@@ -561,9 +552,6 @@
     <t>Icarus</t>
   </si>
   <si>
-    <t>Abiotic versus biotic iron mineral transformation studied by a miniaturized backscattering Mössbauer spectrometer (MIMOS II), X-ray diffraction and Raman spectroscopy</t>
-  </si>
-  <si>
     <t>296, 49-58</t>
   </si>
   <si>
@@ -642,9 +630,6 @@
     <t>6, 30969</t>
   </si>
   <si>
-    <t>Ruecker, A, Schröder, C., Byrne, J. M., Weigold, P., Behrens, S., &amp; Kappler, A.</t>
-  </si>
-  <si>
     <t>Geochemistry and mineralogy of Western Australian salt lake sediments: Implications for Meridiani Planum on Mars</t>
   </si>
   <si>
@@ -918,24 +903,15 @@
     <t>Anaerobic neutrophilic pyrite oxidation by a chemolithoautotrophic nitrate-reducing iron(II)-oxidizing culture enriched from a fractured aquifer</t>
   </si>
   <si>
-    <t>Jakus, Natalia; Mellage, Adrian; Höschen, Carmen; Maisch, Markus; Byrne, James; Mueller, Carsten; Grathwohl, Peter; Kappler, Andreas</t>
-  </si>
-  <si>
     <t>Organic matter from redoximorphic soils accelerates and sustains microbial Fe(III) reduction</t>
   </si>
   <si>
-    <t>Fritzsche, Andreas; Bosch, Julian; Sander, Michael; Schröder, Christian; Byrne, James; Ritschel, Thomas; Joshi, Prachi; Maisch, Markus; Meckenstock, Rainer; Kappler, Andreas; Totsche, Kai</t>
-  </si>
-  <si>
     <t>Byrne J.M., Kappler A.</t>
   </si>
   <si>
     <t>https://doi.org/10.2138/am-2021-7802</t>
   </si>
   <si>
-    <t>A revised analysis of ferrihydrite at liquid helium temperature using Mössbauer spectroscopy</t>
-  </si>
-  <si>
     <t>Microbial Fe cycling in a simulated Precambrian ocean environment: Implications for secondary mineral (trans)formation and deposition during BIF genesis</t>
   </si>
   <si>
@@ -973,6 +949,30 @@
   </si>
   <si>
     <t>Journal data</t>
+  </si>
+  <si>
+    <t>A revised analysis of ferrihydrite at liquid helium temperature using Moessbauer spectroscopy</t>
+  </si>
+  <si>
+    <t>Fritzsche, Andreas; Bosch, Julian; Sander, Michael; Schroeder, Christian; Byrne, James; Ritschel, Thomas; Joshi, Prachi; Maisch, Markus; Meckenstock, Rainer; Kappler, Andreas; Totsche, Kai</t>
+  </si>
+  <si>
+    <t>Jakus, Natalia; Mellage, Adrian; Hoeschen, Carmen; Maisch, Markus; Byrne, James; Mueller, Carsten; Grathwohl, Peter; Kappler, Andreas</t>
+  </si>
+  <si>
+    <t>Agnes Kontny, Magnus Schneider, Elisabeth Eiche, Emiliano Stopelli, Martyna Glodowska, Bhasker Rathi, Joerg Goettlicher, James M. Byrne, Andreas Kappler, Michael Berg, Duyen Vu Thi, Pham T.K. Trang, Pham H. Viet, Thomas Neumann</t>
+  </si>
+  <si>
+    <t>H.Y. Wang, J. Goettlicher, J.M. Byrne, H.M Guo, L. G. Benning, S. Norra</t>
+  </si>
+  <si>
+    <t>Moessbauer spectroscopy, in Analytical Geomicrobiology: A Handbook of Instrumental Techniques</t>
+  </si>
+  <si>
+    <t>Abiotic versus biotic iron mineral transformation studied by a miniaturized backscattering Moessbauer spectrometer (MIMOS II), X-ray diffraction and Raman spectroscopy</t>
+  </si>
+  <si>
+    <t>Ruecker, A, Schroeder, C., Byrne, J. M., Weigold, P., Behrens, S., &amp; Kappler, A.</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1581,10 +1581,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
@@ -1595,17 +1595,17 @@
         <v>2022</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="36" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1616,17 +1616,17 @@
         <v>2022</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="36" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1637,15 +1637,15 @@
         <v>2021</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="5"/>
       <c r="G4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1656,17 +1656,17 @@
         <v>2021</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1677,13 +1677,13 @@
         <v>2021</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1696,13 +1696,13 @@
         <v>2021</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1715,19 +1715,19 @@
         <v>2021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1738,19 +1738,19 @@
         <v>2021</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1761,13 +1761,13 @@
         <v>2021</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1780,17 +1780,17 @@
         <v>2021</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1802,19 +1802,19 @@
         <v>2021</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1825,19 +1825,19 @@
         <v>2021</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,19 +1848,19 @@
         <v>2021</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1871,17 +1871,17 @@
         <v>2021</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,16 +1895,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -1924,10 +1924,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -1938,19 +1938,19 @@
         <v>2021</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,19 +1961,19 @@
         <v>2020</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -1984,19 +1984,19 @@
         <v>2020</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2007,19 +2007,19 @@
         <v>2020</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="G21" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2030,19 +2030,19 @@
         <v>2020</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="G22" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2053,16 +2053,16 @@
         <v>2020</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2073,19 +2073,19 @@
         <v>2020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2096,19 +2096,19 @@
         <v>2020</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2119,13 +2119,13 @@
         <v>2020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -2137,16 +2137,16 @@
         <v>2020</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2157,16 +2157,16 @@
         <v>2020</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2177,16 +2177,16 @@
         <v>2020</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2197,13 +2197,13 @@
         <v>2020</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -2215,17 +2215,17 @@
         <v>2020</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2236,16 +2236,16 @@
         <v>2020</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E32" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2256,16 +2256,16 @@
         <v>2020</v>
       </c>
       <c r="C33" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -2277,16 +2277,16 @@
         <v>2020</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -2298,13 +2298,13 @@
         <v>2019</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2317,16 +2317,16 @@
         <v>2019</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>101</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2337,16 +2337,16 @@
         <v>2019</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2357,20 +2357,20 @@
         <v>2019</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41</v>
       </c>
@@ -2378,16 +2378,16 @@
         <v>2019</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -2399,16 +2399,16 @@
         <v>2019</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -2420,16 +2420,16 @@
         <v>2018</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -2441,20 +2441,20 @@
         <v>2018</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>37</v>
       </c>
@@ -2462,16 +2462,16 @@
         <v>2018</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -2483,13 +2483,13 @@
         <v>2018</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F44" s="34">
         <v>44531</v>
@@ -2504,16 +2504,16 @@
         <v>2018</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G45" s="2"/>
     </row>
@@ -2525,16 +2525,16 @@
         <v>2018</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G46" s="2"/>
     </row>
@@ -2546,16 +2546,16 @@
         <v>2018</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G47" s="4"/>
     </row>
@@ -2567,16 +2567,16 @@
         <v>2018</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G48" s="2"/>
     </row>
@@ -2588,16 +2588,16 @@
         <v>2017</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="G49" s="4"/>
     </row>
@@ -2609,16 +2609,16 @@
         <v>2017</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G50" s="2"/>
     </row>
@@ -2630,13 +2630,13 @@
         <v>2017</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F51" s="22">
         <v>0.75416666666666676</v>
@@ -2651,16 +2651,16 @@
         <v>2017</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G52" s="2"/>
     </row>
@@ -2672,19 +2672,19 @@
         <v>2017</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2695,16 +2695,16 @@
         <v>2017</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G54" s="2"/>
     </row>
@@ -2716,16 +2716,16 @@
         <v>2017</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G55" s="2"/>
     </row>
@@ -2737,13 +2737,13 @@
         <v>2017</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2756,16 +2756,16 @@
         <v>2016</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G57" s="2"/>
     </row>
@@ -2777,16 +2777,16 @@
         <v>2016</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G58" s="2"/>
     </row>
@@ -2798,16 +2798,16 @@
         <v>2016</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G59" s="4"/>
     </row>
@@ -2819,16 +2819,16 @@
         <v>2016</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -2840,16 +2840,16 @@
         <v>2016</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G61" s="2"/>
     </row>
@@ -2861,16 +2861,16 @@
         <v>2016</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -2882,16 +2882,16 @@
         <v>2016</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G63" s="2"/>
     </row>
@@ -2903,16 +2903,16 @@
         <v>2015</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -2924,16 +2924,16 @@
         <v>2015</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G65" s="4"/>
     </row>
@@ -2945,16 +2945,16 @@
         <v>2015</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G66" s="4"/>
     </row>
@@ -2966,16 +2966,16 @@
         <v>2015</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -2986,16 +2986,16 @@
         <v>2015</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G68" s="2"/>
     </row>
@@ -3007,16 +3007,16 @@
         <v>2015</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G69" s="2"/>
     </row>
@@ -3028,16 +3028,16 @@
         <v>2015</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G70" s="2"/>
     </row>
@@ -3049,16 +3049,16 @@
         <v>2014</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G71" s="2"/>
     </row>
@@ -3070,16 +3070,16 @@
         <v>2014</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G72" s="2"/>
     </row>
@@ -3091,16 +3091,16 @@
         <v>2014</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G73" s="4"/>
     </row>
@@ -3112,16 +3112,16 @@
         <v>2013</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G74" s="2"/>
     </row>
@@ -3133,16 +3133,16 @@
         <v>2013</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G75" s="2"/>
     </row>
@@ -3154,16 +3154,16 @@
         <v>2013</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G76" s="4"/>
     </row>
@@ -3175,16 +3175,16 @@
         <v>2012</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E77" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G77" s="2"/>
     </row>
@@ -3196,13 +3196,13 @@
         <v>2012</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -3215,16 +3215,16 @@
         <v>2011</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G79" s="2"/>
     </row>
@@ -3236,16 +3236,16 @@
         <v>2011</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E80" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="G80" s="4"/>
     </row>

--- a/PublicationList_vCSV.xlsx
+++ b/PublicationList_vCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ea19833_bristol_ac_uk/Documents/Documents/Website/biogeochem/bristolbiogeochem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{041B0603-2F5C-4AF0-97FB-421E0494523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C34E081-7771-4041-BC8C-71F026E5D347}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{041B0603-2F5C-4AF0-97FB-421E0494523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D6A83D2-C1BC-4417-AE09-BDEC60FB31BF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49B9DFBD-B444-423A-85EA-2ABDABAE12CD}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>Van Groeningen, N., ThomasArrigo, L.K., Byrne, J.M., Kappler, A., Christl, I., Kretzschmar, R.</t>
   </si>
   <si>
-    <t xml:space="preserve"> (2020) Interactions of ferrous iron with clay mineral surfaces during sorption and subsequent oxidation</t>
-  </si>
-  <si>
     <t>22, 1355-1367</t>
   </si>
   <si>
@@ -898,9 +895,6 @@
   </si>
   <si>
     <t>17, 4355-4374</t>
-  </si>
-  <si>
-    <t> Microbial anaerobic Fe(II) oxidation - ecology, mechanisms and environmental implications</t>
   </si>
   <si>
     <t>A case study for late Archean and Proterozoic biogeochemical iron and sulphur cycling in a modern habitat - the Arvadi Spring</t>
@@ -970,6 +964,12 @@
   </si>
   <si>
     <t>https://doi.org/10.1128/AEM.00460-21</t>
+  </si>
+  <si>
+    <t>Microbial anaerobic Fe(II) oxidation - ecology, mechanisms and environmental implications</t>
+  </si>
+  <si>
+    <t>Interactions of ferrous iron with clay mineral surfaces during sorption and subsequent oxidation</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,6 +1178,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1492,8 +1513,8 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>10</v>
@@ -1538,17 +1559,17 @@
         <v>2022</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,17 +1580,17 @@
         <v>2022</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1579,18 +1600,18 @@
       <c r="B4" s="10">
         <v>2021</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>274</v>
+      <c r="C4" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1601,17 +1622,17 @@
         <v>2021</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,17 +1643,17 @@
         <v>2021</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,20 +1663,20 @@
       <c r="B7" s="10">
         <v>2021</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1666,19 +1687,19 @@
         <v>2021</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>254</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1689,17 +1710,17 @@
         <v>2021</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,11 +1730,11 @@
       <c r="B10" s="10">
         <v>2021</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>43</v>
@@ -1731,11 +1752,11 @@
       <c r="B11" s="10">
         <v>2021</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>14</v>
@@ -1758,7 +1779,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -1787,7 +1808,7 @@
         <v>63</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>38</v>
@@ -1825,13 +1846,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>12</v>
@@ -1854,7 +1875,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>11</v>
@@ -1868,10 +1889,10 @@
         <v>2021</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>14</v>
@@ -1894,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -1914,7 +1935,7 @@
         <v>2020</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>47</v>
@@ -1923,7 +1944,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>48</v>
@@ -1946,7 +1967,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>52</v>
@@ -1969,7 +1990,7 @@
         <v>53</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>56</v>
@@ -2035,7 +2056,7 @@
         <v>57</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>61</v>
@@ -2052,7 +2073,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>63</v>
@@ -2073,7 +2094,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>66</v>
@@ -2090,7 +2111,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>14</v>
@@ -2107,7 +2128,7 @@
         <v>2020</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>67</v>
@@ -2116,7 +2137,7 @@
         <v>53</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2127,10 +2148,10 @@
         <v>2020</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>63</v>
@@ -2144,18 +2165,18 @@
       <c r="B30" s="16">
         <v>2020</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>72</v>
+      <c r="C30" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2166,16 +2187,16 @@
         <v>2020</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2186,16 +2207,16 @@
         <v>2020</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2206,16 +2227,16 @@
         <v>2020</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2226,13 +2247,13 @@
         <v>2019</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="F34" s="4"/>
     </row>
@@ -2244,16 +2265,16 @@
         <v>2019</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2264,16 +2285,16 @@
         <v>2019</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2284,16 +2305,16 @@
         <v>2019</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2304,16 +2325,16 @@
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2324,16 +2345,16 @@
         <v>2019</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2344,16 +2365,16 @@
         <v>2018</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2364,16 +2385,16 @@
         <v>2018</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2384,16 +2405,16 @@
         <v>2018</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2404,13 +2425,13 @@
         <v>2018</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="21">
         <v>44531</v>
@@ -2424,16 +2445,16 @@
         <v>2018</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2444,16 +2465,16 @@
         <v>2018</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2463,17 +2484,17 @@
       <c r="B46" s="20">
         <v>2018</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>140</v>
+      <c r="C46" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="G46" s="2"/>
     </row>
@@ -2485,16 +2506,16 @@
         <v>2018</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2505,16 +2526,16 @@
         <v>2017</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="G48" s="2"/>
     </row>
@@ -2526,16 +2547,16 @@
         <v>2017</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2546,13 +2567,13 @@
         <v>2017</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" s="23">
         <v>0.75416666666666676</v>
@@ -2566,16 +2587,16 @@
         <v>2017</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2586,19 +2607,19 @@
         <v>2017</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2609,16 +2630,16 @@
         <v>2017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2629,16 +2650,16 @@
         <v>2017</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2649,13 +2670,13 @@
         <v>2017</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F55" s="4"/>
     </row>
@@ -2667,16 +2688,16 @@
         <v>2016</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2687,16 +2708,16 @@
         <v>2016</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2707,16 +2728,16 @@
         <v>2016</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="G58" s="2"/>
     </row>
@@ -2728,16 +2749,16 @@
         <v>2016</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2748,16 +2769,16 @@
         <v>2016</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -2768,16 +2789,16 @@
         <v>2016</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="69" x14ac:dyDescent="0.25">
@@ -2788,16 +2809,16 @@
         <v>2016</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -2808,16 +2829,16 @@
         <v>2015</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E63" s="6" t="s">
+      <c r="F63" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2828,16 +2849,16 @@
         <v>2015</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -2848,17 +2869,17 @@
       <c r="B65" s="16">
         <v>2015</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="G65" s="2"/>
     </row>
@@ -2870,16 +2891,16 @@
         <v>2015</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -2890,16 +2911,16 @@
         <v>2015</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2910,16 +2931,16 @@
         <v>2015</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="F68" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -2930,16 +2951,16 @@
         <v>2015</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2950,16 +2971,16 @@
         <v>2014</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2970,16 +2991,16 @@
         <v>2014</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2990,16 +3011,16 @@
         <v>2014</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="G72" s="2"/>
     </row>
@@ -3011,16 +3032,16 @@
         <v>2013</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -3031,16 +3052,16 @@
         <v>2013</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -3051,16 +3072,16 @@
         <v>2013</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="E75" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="G75" s="2"/>
     </row>
@@ -3072,16 +3093,16 @@
         <v>2012</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E76" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -3092,13 +3113,13 @@
         <v>2012</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -3111,16 +3132,16 @@
         <v>2011</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -3131,16 +3152,16 @@
         <v>2011</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G79" s="2"/>
     </row>

--- a/PublicationList_vCSV.xlsx
+++ b/PublicationList_vCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ea19833_bristol_ac_uk/Documents/Documents/Website/biogeochem/bristolbiogeochem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{041B0603-2F5C-4AF0-97FB-421E0494523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D6A83D2-C1BC-4417-AE09-BDEC60FB31BF}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{041B0603-2F5C-4AF0-97FB-421E0494523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F6E455-C0C4-4784-B7F2-B3789ED2BC83}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49B9DFBD-B444-423A-85EA-2ABDABAE12CD}"/>
   </bookViews>
@@ -1514,7 +1514,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1598,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>273</v>

--- a/PublicationList_vCSV.xlsx
+++ b/PublicationList_vCSV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ea19833_bristol_ac_uk/Documents/Documents/Website/biogeochem/bristolbiogeochem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{041B0603-2F5C-4AF0-97FB-421E0494523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F6E455-C0C4-4784-B7F2-B3789ED2BC83}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{041B0603-2F5C-4AF0-97FB-421E0494523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E279C14C-A56E-4431-9ACB-CC0863BD3F36}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49B9DFBD-B444-423A-85EA-2ABDABAE12CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49B9DFBD-B444-423A-85EA-2ABDABAE12CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Published_full" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="332">
   <si>
     <t>-</t>
   </si>
@@ -970,6 +970,99 @@
   </si>
   <si>
     <t>Interactions of ferrous iron with clay mineral surfaces during sorption and subsequent oxidation</t>
+  </si>
+  <si>
+    <t>Cu(II) and Cd(II) Removal Efficiency of Microbially Redox-Activated Magnetite Nanoparticles</t>
+  </si>
+  <si>
+    <t>Iron reduction as a viable metabolic pathway in Enceladus’ ocean</t>
+  </si>
+  <si>
+    <t>Carbon oxidation with sacrificial anodes to inhibit O2 evolution in membrane-less bioelectrochemical systems for microbial electrosynthesis</t>
+  </si>
+  <si>
+    <t>Continuous cultivation of the lithoautotrophic nitrate-reducing Fe(II)-oxidizing culture KS in a chemostat bioreactor</t>
+  </si>
+  <si>
+    <t>Bayer T.,Wei R., Kappler A., &amp; Byrne J. M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roche M., Fox-Powell M. G., Hamp R. E., Byrne J.M. </t>
+  </si>
+  <si>
+    <t>Rohbohm N., Sun T., Blasco-Gómez R., Byrne J. M., Kappler A. and Angenent L. T. .</t>
+  </si>
+  <si>
+    <t>Timm Bayer, Elizabeth J. Tomaszewski, Casey Bryce, Andreas Kappler, James M. Byrne</t>
+  </si>
+  <si>
+    <t>Changing Cr-Retention Capacity of Magnetite-Coated Sand Captured by Spectral Induced Polarization (SIP)</t>
+  </si>
+  <si>
+    <t>Ali Rahmani, Marc Franz, Frederik Bär, Claudia Backes, James M. Byrne, and Adrian Mellage</t>
+  </si>
+  <si>
+    <t>ES&amp;T Water</t>
+  </si>
+  <si>
+    <t>Elements Magazine</t>
+  </si>
+  <si>
+    <t>ACS Earth and Space Chemistry</t>
+  </si>
+  <si>
+    <t>International Journal of Astrobiology</t>
+  </si>
+  <si>
+    <t>EES Catalysis</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acsestwater.3c00824</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acsearthspacechem.2c00394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S1473550423000125 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1758-2229.13149</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/D3EY00141E</t>
+  </si>
+  <si>
+    <t>Biomagnetism: Insights Into Magnetic Minerals Produced by Microorganisms</t>
+  </si>
+  <si>
+    <t>Byrne J. M., and M. Amor</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2138/gselements.19.4.208</t>
+  </si>
+  <si>
+    <t>Magnetite nanoparticles are metastable biogeobatteries in consecutive redox cycles driven by microbial Fe oxidation and reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. Bayer, N. Jakus, A. Kappler,  and J. M. Byrne </t>
+  </si>
+  <si>
+    <t>Geo-Bio Interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1180/gbi.2024.2 </t>
+  </si>
+  <si>
+    <t>Redox Dynamic Interactions of Arsenic(III) with Green Rust Sulfate in the Presence of Citrate</t>
+  </si>
+  <si>
+    <t>Biswakarma J., Matthews M., Byrne J. M.</t>
+  </si>
+  <si>
+    <t>ES&amp;T Letters</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.estlett.4c00700</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1123,7 +1216,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,9 +1224,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1144,13 +1234,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1186,13 +1273,26 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1214,9 +1314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1254,7 +1354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1360,7 +1460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1502,7 +1602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1510,25 +1610,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182F4AD1-2C83-4EBE-914E-FE784A6107BB}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="48" style="9" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="8"/>
+    <col min="3" max="3" width="48" style="8" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1551,1639 +1651,1822 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <f t="shared" ref="A2:A8" si="0">A3+1</f>
+        <v>85</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f>A10+1</f>
+        <v>78</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>77</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B10" s="4">
         <v>2022</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="7" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="11" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>76</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B11" s="4">
         <v>2022</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="7" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="12" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>75</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B12" s="9">
         <v>2022</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="28" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="24" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="13" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>74</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B13" s="9">
         <v>2021</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>73</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>72</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>71</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>70</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <f>A12+1</f>
-        <v>68</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>67</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>66</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>73</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>72</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>71</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>70</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>69</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <f>A20+1</f>
+        <v>68</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>67</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>66</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="22" spans="1:7" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>65</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B22" s="9">
         <v>2021</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="11" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="23" spans="1:7" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>64</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B23" s="9">
         <v>2021</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>63</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B24" s="9">
         <v>2021</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>62</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B25" s="9">
         <v>2021</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="26" spans="1:7" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>61</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B26" s="14">
         <v>2020</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>60</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B27" s="14">
         <v>2020</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="28" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>59</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B28" s="14">
         <v>2020</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>58</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B29" s="14">
         <v>2020</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F29" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="30" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>57</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B30" s="14">
         <v>2020</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>56</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B31" s="14">
         <v>2020</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>55</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B32" s="14">
         <v>2020</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F32" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>54</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B33" s="14">
         <v>2020</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>53</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B34" s="14">
         <v>2020</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>52</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B35" s="14">
         <v>2020</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>51</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B36" s="14">
         <v>2020</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="37" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>50</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B37" s="14">
         <v>2020</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>49</v>
-      </c>
-      <c r="B30" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>48</v>
-      </c>
-      <c r="B31" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>47</v>
-      </c>
-      <c r="B32" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>46</v>
-      </c>
-      <c r="B33" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>45</v>
-      </c>
-      <c r="B34" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>44</v>
-      </c>
-      <c r="B35" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>43</v>
-      </c>
-      <c r="B36" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>42</v>
-      </c>
-      <c r="B37" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>49</v>
+      </c>
+      <c r="B38" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>48</v>
+      </c>
+      <c r="B39" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>47</v>
+      </c>
+      <c r="B40" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>46</v>
+      </c>
+      <c r="B41" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>45</v>
+      </c>
+      <c r="B42" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>44</v>
+      </c>
+      <c r="B43" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="46" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B46" s="17">
         <v>2019</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>40</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B47" s="17">
         <v>2019</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="48" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B48" s="18">
         <v>2018</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>38</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B49" s="18">
         <v>2018</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="50" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B50" s="18">
         <v>2018</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>36</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B51" s="18">
         <v>2018</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F51" s="19">
         <v>44531</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>35</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B52" s="18">
         <v>2018</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="53" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>34</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B53" s="18">
         <v>2018</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>33</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B54" s="18">
         <v>2018</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C54" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>32</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B55" s="18">
         <v>2018</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>31</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B56" s="20">
         <v>2017</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>30</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B57" s="20">
         <v>2017</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="58" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>29</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B58" s="20">
         <v>2017</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F58" s="21">
         <v>0.75416666666666676</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+    <row r="59" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>28</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B59" s="20">
         <v>2017</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>27</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B60" s="20">
         <v>2017</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+    <row r="61" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>26</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B61" s="20">
         <v>2017</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+    <row r="62" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>25</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B62" s="20">
         <v>2017</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>24</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B63" s="20">
         <v>2017</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>23</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B64" s="9">
         <v>2016</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+    <row r="65" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>22</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B65" s="9">
         <v>2016</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>21</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B66" s="9">
         <v>2016</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>20</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B67" s="9">
         <v>2016</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+    <row r="68" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>19</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B68" s="9">
         <v>2016</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+    <row r="69" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>18</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B69" s="9">
         <v>2016</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+    <row r="70" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>17</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B70" s="9">
         <v>2016</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+    <row r="71" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>16</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B71" s="14">
         <v>2015</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+    <row r="72" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>15</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B72" s="14">
         <v>2015</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>14</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B73" s="14">
         <v>2015</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C73" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>13</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B74" s="14">
         <v>2015</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+    <row r="75" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>12</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B75" s="14">
         <v>2015</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>11</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B76" s="14">
         <v>2015</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>10</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B77" s="14">
         <v>2015</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+    <row r="78" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>9</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B78" s="17">
         <v>2014</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+    <row r="79" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
         <v>8</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B79" s="17">
         <v>2014</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+    <row r="80" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>7</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B80" s="17">
         <v>2014</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
         <v>6</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B81" s="18">
         <v>2013</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+    <row r="82" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
         <v>5</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B82" s="18">
         <v>2013</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+    <row r="83" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
         <v>4</v>
       </c>
-      <c r="B75" s="20">
+      <c r="B83" s="18">
         <v>2013</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D83" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>3</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B84" s="9">
         <v>2012</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    <row r="85" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B85" s="4">
         <v>2012</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
         <v>2</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B86" s="14">
         <v>2011</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+    <row r="87" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
         <v>1</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B87" s="14">
         <v>2011</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G79" s="2"/>
+      <c r="G87" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" xr:uid="{42CAB5B7-D552-440C-B11F-CDE71182F081}"/>
-    <hyperlink ref="G17" r:id="rId2" xr:uid="{AD5A5598-6189-4D17-BF63-E0A21CC1E076}"/>
-    <hyperlink ref="G18" r:id="rId3" xr:uid="{CFAE530D-EDEB-45B3-BDEA-B4AF5A5E0B90}"/>
-    <hyperlink ref="G23" r:id="rId4" xr:uid="{C84DD770-28A1-41B2-B0FD-943F74C7023A}"/>
-    <hyperlink ref="G15" r:id="rId5" xr:uid="{B1A58CF3-EA6D-4E0A-B487-F5561F92E483}"/>
-    <hyperlink ref="G12" r:id="rId6" xr:uid="{FC4A2C48-87E2-4E46-A0F5-9BB9F80D7CBE}"/>
-    <hyperlink ref="G13" r:id="rId7" tooltip="DOI URL" xr:uid="{D31EC538-32E5-45D0-BEA0-06F79BC10F92}"/>
-    <hyperlink ref="G11" r:id="rId8" tooltip="Persistent link using digital object identifier" xr:uid="{3DEFDB04-E8A3-4668-8BD8-15DE9ED0F0C2}"/>
-    <hyperlink ref="G14" r:id="rId9" xr:uid="{0D068958-2C32-43C2-B8E5-76644408ABB7}"/>
-    <hyperlink ref="G21" r:id="rId10" tooltip="Link to landing page via DOI" xr:uid="{F458D038-33F1-4203-A0C1-34B564B4550B}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{7620822E-6AC3-4416-987F-CE6AF18B1DB9}"/>
-    <hyperlink ref="G4" r:id="rId12" xr:uid="{3BE0D0DC-A5A6-43EC-8F73-3634EB957444}"/>
-    <hyperlink ref="G2" r:id="rId13" tooltip="Persistent link using digital object identifier" xr:uid="{4CA31B33-7EF8-4F60-A202-45784C8ECBC1}"/>
-    <hyperlink ref="G3" r:id="rId14" tooltip="Persistent link using digital object identifier" xr:uid="{B6EE30F7-213F-475F-B03A-6A38D13A1168}"/>
+    <hyperlink ref="G24" r:id="rId1" xr:uid="{42CAB5B7-D552-440C-B11F-CDE71182F081}"/>
+    <hyperlink ref="G25" r:id="rId2" xr:uid="{AD5A5598-6189-4D17-BF63-E0A21CC1E076}"/>
+    <hyperlink ref="G26" r:id="rId3" xr:uid="{CFAE530D-EDEB-45B3-BDEA-B4AF5A5E0B90}"/>
+    <hyperlink ref="G31" r:id="rId4" xr:uid="{C84DD770-28A1-41B2-B0FD-943F74C7023A}"/>
+    <hyperlink ref="G23" r:id="rId5" xr:uid="{B1A58CF3-EA6D-4E0A-B487-F5561F92E483}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{FC4A2C48-87E2-4E46-A0F5-9BB9F80D7CBE}"/>
+    <hyperlink ref="G21" r:id="rId7" tooltip="DOI URL" xr:uid="{D31EC538-32E5-45D0-BEA0-06F79BC10F92}"/>
+    <hyperlink ref="G19" r:id="rId8" tooltip="Persistent link using digital object identifier" xr:uid="{3DEFDB04-E8A3-4668-8BD8-15DE9ED0F0C2}"/>
+    <hyperlink ref="G22" r:id="rId9" xr:uid="{0D068958-2C32-43C2-B8E5-76644408ABB7}"/>
+    <hyperlink ref="G29" r:id="rId10" tooltip="Link to landing page via DOI" xr:uid="{F458D038-33F1-4203-A0C1-34B564B4550B}"/>
+    <hyperlink ref="G15" r:id="rId11" xr:uid="{7620822E-6AC3-4416-987F-CE6AF18B1DB9}"/>
+    <hyperlink ref="G12" r:id="rId12" xr:uid="{3BE0D0DC-A5A6-43EC-8F73-3634EB957444}"/>
+    <hyperlink ref="G10" r:id="rId13" tooltip="Persistent link using digital object identifier" xr:uid="{4CA31B33-7EF8-4F60-A202-45784C8ECBC1}"/>
+    <hyperlink ref="G11" r:id="rId14" tooltip="Persistent link using digital object identifier" xr:uid="{B6EE30F7-213F-475F-B03A-6A38D13A1168}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{57090FC1-9E30-41D0-919E-FBED4FC57F01}"/>
+    <hyperlink ref="G7" r:id="rId16" display="https://doi.org/10.1017/S1473550423000125" xr:uid="{66EB05D6-16FE-4EBF-A80A-678BA6C83E34}"/>
+    <hyperlink ref="G6" r:id="rId17" xr:uid="{E7734BBB-9EAB-41F9-B4A1-30C9DC94DED9}"/>
+    <hyperlink ref="G4" r:id="rId18" tooltip="DOI URL" xr:uid="{F6E9F4B2-2D2D-446A-A3FA-93A7E6B49D3B}"/>
+    <hyperlink ref="G8" r:id="rId19" xr:uid="{6D585E8E-47BB-498A-B58D-E572A3FD220B}"/>
+    <hyperlink ref="G5" r:id="rId20" xr:uid="{AE336E68-D7C9-4788-B356-DFBDD07F459F}"/>
+    <hyperlink ref="G3" r:id="rId21" xr:uid="{55EBB306-06EA-492A-A518-64F37D793B52}"/>
+    <hyperlink ref="G2" r:id="rId22" xr:uid="{7957A05F-A32E-4AA7-9F97-0D84DC330ED6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K737373UOB Open</oddFooter>
   </headerFooter>
